--- a/src/ainex_arm/ainex_sheets/shake_hand_sheet.xlsx
+++ b/src/ainex_arm/ainex_sheets/shake_hand_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Servo1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">Servo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo6</t>
   </si>
   <si>
     <t xml:space="preserve">Delay</t>
@@ -134,15 +143,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,10 +344,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,6 +365,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -368,6 +386,15 @@
         <v>90</v>
       </c>
       <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -384,6 +411,15 @@
       <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -396,6 +432,15 @@
         <v>90</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
